--- a/pred_ohlcv/54_21/2020-01-13 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25320807.81937892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16876620.16287893</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16666610.44737893</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-11971769.77047893</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-11597395.77047893</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11557227.43127893</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-11990322.41627893</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10551619.86047893</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10555568.47777893</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10454060.35712928</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10875371.48142928</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7519768.613129275</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7384357.937329276</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6995735.937329276</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3232415.157470724</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6394147.124505084</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6392669.720005084</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>25392654.02150508</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24792654.02150508</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>26681193.35700508</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12125165.16640508</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>17465819.44860508</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>12320734.20380508</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12270715.71810508</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>12266329.94180508</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12419929.95250508</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>41798536.07400508</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>35357512.61010508</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>35071091.45610508</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>35067391.17160508</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>48853577.56340508</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>53839416.63840508</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>54791519.59960508</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>64491709.2590484</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>64991422.14954686</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>65080195.14954686</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>65965670.20934686</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>72840170.01544686</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>72824263.62134686</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>71821063.62134686</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>72306275.62134686</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>80815649.43926662</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>80812806.62986661</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>83881335.38706662</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>95242186.98766105</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>94319829.92186105</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>105170827.4297611</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>103485869.0355611</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>114344220.5893611</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>113388198.6343611</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>113561886.7407611</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>115647210.3668611</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>115579054.4276611</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>115802453.6759611</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25320807.81937892</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-20973092.57287892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16876620.16287893</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16666610.44737893</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-11971769.77047893</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-11597395.77047893</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11557227.43127893</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-11990322.41627893</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10551619.86047893</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10555568.47777893</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10454060.35712928</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10875371.48142928</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7519768.613129275</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7384357.937329276</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6995735.937329276</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3232415.157470724</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6394147.124505084</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6392669.720005084</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>25392654.02150508</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24792654.02150508</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>26681193.35700508</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12125165.16640508</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>17465819.44860508</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>12320734.20380508</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12270715.71810508</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>12266329.94180508</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12419929.95250508</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>41798536.07400508</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>35357512.61010508</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>35071091.45610508</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>35067391.17160508</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>48853577.56340508</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>53839416.63840508</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>54791519.59960508</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>64491709.2590484</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>64991422.14954686</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>65080195.14954686</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>65965670.20934686</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>72840170.01544686</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>72824263.62134686</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>71821063.62134686</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>72306275.62134686</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>80815649.43926662</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>80812806.62986661</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>83881335.38706662</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>95242186.98766105</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>94319829.92186105</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>105170827.4297611</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>103485869.0355611</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>114344220.5893611</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>115647210.3668611</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>115579054.4276611</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
